--- a/RegistroHoras.xlsx
+++ b/RegistroHoras.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Desktop\TISJ\Prog App\Laboratorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DCB6C5B-924A-49B2-8F52-F53E340E8004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC345F2-5247-4B7C-A688-66A09A480A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1916,7 +1916,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2085,13 +2085,21 @@
         <f t="shared" ref="K3:K10" si="0">SUM(G3:J3)</f>
         <v>2</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="11"/>
+      <c r="L3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.5</v>
+      </c>
       <c r="P3" s="12">
         <f t="shared" ref="P3:P10" si="1">SUM(L3:O3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="10"/>
@@ -2102,8 +2110,8 @@
         <v>0</v>
       </c>
       <c r="V3" s="14">
-        <f t="shared" ref="V3:V10" si="3">SUM(U3,P3,F3)</f>
-        <v>2</v>
+        <f>SUM(U3,P3,F3,K3)</f>
+        <v>6</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="3"/>
@@ -2134,11 +2142,15 @@
       <c r="H4" s="17">
         <v>1.5</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
       <c r="K4" s="19">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="17"/>
@@ -2157,8 +2169,8 @@
         <v>0</v>
       </c>
       <c r="V4" s="21">
-        <f t="shared" si="3"/>
-        <v>6.25</v>
+        <f>SUM(U4,P4,F4,K4)</f>
+        <v>10.25</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="3"/>
@@ -2174,16 +2186,22 @@
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19">
-        <f t="shared" ref="F5:F10" si="4">SUM(B5:E5)</f>
+        <f t="shared" ref="F5:F10" si="3">SUM(B5:E5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="H5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1.5</v>
+      </c>
       <c r="K5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="17"/>
@@ -2202,8 +2220,8 @@
         <v>0</v>
       </c>
       <c r="V5" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(U5,K5,P5,F5)</f>
+        <v>3.5</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="3"/>
@@ -2219,7 +2237,7 @@
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G6" s="20"/>
@@ -2231,12 +2249,18 @@
         <v>0</v>
       </c>
       <c r="L6" s="20"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
+      <c r="M6" s="17">
+        <v>2</v>
+      </c>
+      <c r="N6" s="17">
+        <v>2</v>
+      </c>
+      <c r="O6" s="18">
+        <v>2</v>
+      </c>
       <c r="P6" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" s="17"/>
@@ -2247,8 +2271,8 @@
         <v>0</v>
       </c>
       <c r="V6" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="V3:V10" si="4">SUM(U6,P6,F6)</f>
+        <v>6</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="3"/>
@@ -2264,7 +2288,7 @@
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7" s="20"/>
@@ -2292,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W7" s="2"/>
@@ -2309,7 +2333,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8" s="20"/>
@@ -2337,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W8" s="2"/>
@@ -2354,24 +2378,30 @@
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
       <c r="F9" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="17">
+        <v>4</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
+      <c r="N9" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="O9" s="18">
+        <v>1</v>
+      </c>
       <c r="P9" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" s="20"/>
       <c r="R9" s="17"/>
@@ -2382,8 +2412,8 @@
         <v>0</v>
       </c>
       <c r="V9" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.5</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="3"/>
@@ -2399,7 +2429,7 @@
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
       <c r="F10" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10" s="28"/>
@@ -2429,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="W10" s="2"/>
@@ -2467,39 +2497,39 @@
       </c>
       <c r="H11" s="33">
         <f>SUM(H3:H10)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I11" s="33">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="J11" s="34">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="35">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="L11" s="32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M11" s="33">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="N11" s="33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="P11" s="35">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="32">
         <f t="shared" si="5"/>
@@ -2523,7 +2553,7 @@
       </c>
       <c r="V11" s="36">
         <f t="shared" si="5"/>
-        <v>8.75</v>
+        <v>28.75</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="3"/>

--- a/RegistroHoras.xlsx
+++ b/RegistroHoras.xlsx
@@ -5,18 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Desktop\TISJ\Prog App\Laboratorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC345F2-5247-4B7C-A688-66A09A480A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A3AF17-BE42-4039-AE84-F5087C82D535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja4" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -24,9 +22,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
-  <si>
-    <t>Semana 4</t>
-  </si>
   <si>
     <t>TOTAL x Actividad</t>
   </si>
@@ -102,12 +97,15 @@
   <si>
     <t>Semana  1 (17/8)</t>
   </si>
+  <si>
+    <t>Semana 4 (07/9)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -124,6 +122,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -152,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -276,19 +281,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -366,17 +358,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="10"/>
@@ -435,15 +416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="10"/>
@@ -483,26 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="10"/>
@@ -597,13 +549,39 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,118 +590,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,6 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1913,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1942,39 +1916,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="50" t="s">
+      <c r="A1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="50" t="s">
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="41" t="s">
         <v>0</v>
-      </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="46" t="s">
-        <v>1</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="3"/>
@@ -1982,136 +1956,144 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="P2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="U2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="V2" s="42"/>
       <c r="W2" s="2"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
         <v>0.5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0.5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>0.5</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>0.5</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f>SUM(B3:E3)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>0.5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>0.5</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>0.5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>0.5</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <f t="shared" ref="K3:K10" si="0">SUM(G3:J3)</f>
         <v>2</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>0.5</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>0.5</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>0.5</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>0.5</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="11">
         <f t="shared" ref="P3:P10" si="1">SUM(L3:O3)</f>
         <v>2</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="12">
+      <c r="Q3" s="12">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="11">
         <f t="shared" ref="U3:U10" si="2">SUM(Q3:T3)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="14">
+        <v>4</v>
+      </c>
+      <c r="V3" s="13">
         <f>SUM(U3,P3,F3,K3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="3"/>
@@ -2119,56 +2101,56 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
         <v>1</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>1.75</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>1.75</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>1.75</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <f>SUM(B4:E4)</f>
         <v>6.25</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="17">
+      <c r="G4" s="18"/>
+      <c r="H4" s="15">
         <v>1.5</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <v>1.5</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="16">
         <v>1</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19">
+      <c r="L4" s="18"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="19">
         <f>SUM(U4,P4,F4,K4)</f>
         <v>10.25</v>
       </c>
@@ -2178,48 +2160,48 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19">
+      <c r="A5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17">
         <f t="shared" ref="F5:F10" si="3">SUM(B5:E5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17">
+      <c r="G5" s="18"/>
+      <c r="H5" s="15">
         <v>0.5</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>1.5</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="16">
         <v>1.5</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="17">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19">
+      <c r="L5" s="18"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="19">
         <f>SUM(U5,K5,P5,F5)</f>
         <v>3.5</v>
       </c>
@@ -2229,49 +2211,49 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19">
+      <c r="A6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19">
+      <c r="G6" s="18"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="17">
+      <c r="L6" s="18"/>
+      <c r="M6" s="15">
         <v>2</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="15">
         <v>2</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="16">
         <v>2</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="17">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="19">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V6" s="21">
-        <f t="shared" ref="V3:V10" si="4">SUM(U6,P6,F6)</f>
+      <c r="V6" s="19">
+        <f t="shared" ref="V6:V10" si="4">SUM(U6,P6,F6)</f>
         <v>6</v>
       </c>
       <c r="W6" s="2"/>
@@ -2280,44 +2262,48 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
+      <c r="A7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19">
+      <c r="G7" s="18"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="19">
+      <c r="L7" s="18"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="S7" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="21">
+        <v>10</v>
+      </c>
+      <c r="V7" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="3"/>
@@ -2325,44 +2311,50 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19">
+      <c r="A8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19">
+      <c r="G8" s="18"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="19">
+      <c r="L8" s="18"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="15">
+        <v>1</v>
+      </c>
+      <c r="S8" s="15">
+        <v>2</v>
+      </c>
+      <c r="T8" s="16">
+        <v>1</v>
+      </c>
+      <c r="U8" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="21">
+        <v>4</v>
+      </c>
+      <c r="V8" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="3"/>
@@ -2370,190 +2362,196 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19">
+      <c r="A9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17">
+      <c r="G9" s="18"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15">
         <v>4</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19">
+      <c r="J9" s="16"/>
+      <c r="K9" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17">
+      <c r="L9" s="18"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15">
         <v>1.5</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="16">
         <v>1</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="17">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="21">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="V9" s="19">
+        <f>SUM(U9,P9,F9,K9)</f>
+        <v>8</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27">
+    <row r="10" spans="1:26" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27">
+      <c r="G10" s="24"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="25">
+      <c r="L10" s="24"/>
+      <c r="M10" s="21">
         <v>0.5</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27">
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="27">
+      <c r="Q10" s="24"/>
+      <c r="R10" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="21">
+        <v>1</v>
+      </c>
+      <c r="T10" s="25"/>
+      <c r="U10" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="30">
+        <v>1.25</v>
+      </c>
+      <c r="V10" s="26">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="32">
+    <row r="11" spans="1:26" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27">
         <f>SUM(B3:B10)</f>
         <v>1.5</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <f>SUM(C3:C10)</f>
         <v>2.25</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="28">
         <f>SUM(D3:D10)</f>
         <v>2.25</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="29">
         <f>SUM(E3:E10)</f>
         <v>2.25</v>
       </c>
-      <c r="F11" s="35">
-        <f t="shared" ref="F11:V11" si="5">SUM(F3:F10)</f>
+      <c r="F11" s="30">
+        <f t="shared" ref="F11:U11" si="5">SUM(F3:F10)</f>
         <v>8.25</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="27">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="28">
         <f>SUM(H3:H10)</f>
         <v>2.5</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="28">
         <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="29">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="30">
         <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="27">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="28">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="28">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="29">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11" s="30">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="33">
+        <v>1</v>
+      </c>
+      <c r="R11" s="28">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="33">
+        <v>6.25</v>
+      </c>
+      <c r="S11" s="28">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="34">
+        <v>11.5</v>
+      </c>
+      <c r="T11" s="29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="35">
+        <v>2</v>
+      </c>
+      <c r="U11" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="36">
-        <f t="shared" si="5"/>
-        <v>28.75</v>
+        <v>20.75</v>
+      </c>
+      <c r="V11" s="31">
+        <f>SUM(V3:V10)</f>
+        <v>53.5</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="3"/>
@@ -2561,32 +2559,35 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="39"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2598,7 +2599,7 @@
     <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2613,103 +2614,103 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="10.85546875" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="40"/>
+    <col min="1" max="6" width="10.85546875" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="10.85546875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37">
         <v>1</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37">
         <v>2</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="C4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37">
         <v>4</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37">
         <v>5</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="C7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37">
         <v>6</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2718,186 +2719,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="10.85546875" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="44"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="10.85546875" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="10.85546875" style="45"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>